--- a/data/chuzi.xlsx
+++ b/data/chuzi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\lifujisuanqi\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\个人文件夹\作业\MI 439\mi349_final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED3B077-789F-4C5F-A303-74A43BEBE6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95463946-AF67-4D64-9418-3D867EFCC709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="3660" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
   <si>
     <t>[1] 制作委托：用于储备的食盐</t>
   </si>
@@ -837,23 +837,26 @@
   </si>
   <si>
     <t>高山茶×3</t>
+  </si>
+  <si>
+    <t>旧萨雷安</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1163,13 +1166,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1696,7 +1699,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1730,7 +1733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1781,7 +1784,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1849,7 +1852,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1883,7 +1886,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1968,7 +1971,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2019,7 +2022,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2036,7 +2039,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -2204,9 +2207,9 @@
       <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -2291,7 +2294,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -2359,7 +2362,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>145</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>147</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>149</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -2475,9 +2478,9 @@
       <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -2494,7 +2497,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>159</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>167</v>
       </c>
@@ -2579,7 +2582,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -2596,7 +2599,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>171</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -2630,7 +2633,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>175</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>177</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>179</v>
       </c>
@@ -2681,7 +2684,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>181</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -2715,7 +2718,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -2746,9 +2749,9 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>187</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>189</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>190</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -2884,7 +2887,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -2918,7 +2921,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>202</v>
       </c>
@@ -3017,9 +3020,9 @@
       <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>218</v>
       </c>
@@ -3036,7 +3039,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>221</v>
       </c>
@@ -3053,7 +3056,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>225</v>
       </c>
@@ -3087,7 +3090,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>227</v>
       </c>
@@ -3104,7 +3107,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>229</v>
       </c>
@@ -3121,7 +3124,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>231</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>233</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>235</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>237</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>241</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>243</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>245</v>
       </c>
@@ -3257,7 +3260,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>247</v>
       </c>
@@ -3284,16 +3287,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272F9A80-A9D3-4A83-9CAD-2B89C4156A7C}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>249</v>
       </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
       <c r="C1">
         <v>724620</v>
       </c>
@@ -3304,10 +3310,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>251</v>
       </c>
+      <c r="B2" t="s">
+        <v>269</v>
+      </c>
       <c r="C2">
         <v>696220</v>
       </c>
@@ -3318,10 +3327,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>253</v>
       </c>
+      <c r="B3" t="s">
+        <v>269</v>
+      </c>
       <c r="C3">
         <v>866040</v>
       </c>
@@ -3332,10 +3344,13 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>255</v>
       </c>
+      <c r="B4" t="s">
+        <v>269</v>
+      </c>
       <c r="C4">
         <v>1062190</v>
       </c>
@@ -3346,10 +3361,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>257</v>
       </c>
+      <c r="B5" t="s">
+        <v>269</v>
+      </c>
       <c r="C5">
         <v>1113470</v>
       </c>
@@ -3360,10 +3378,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>259</v>
       </c>
+      <c r="B6" t="s">
+        <v>269</v>
+      </c>
       <c r="C6">
         <v>1160960</v>
       </c>
@@ -3374,10 +3395,13 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>261</v>
       </c>
+      <c r="B7" t="s">
+        <v>269</v>
+      </c>
       <c r="C7">
         <v>1471010</v>
       </c>
@@ -3388,10 +3412,13 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>263</v>
       </c>
+      <c r="B8" t="s">
+        <v>269</v>
+      </c>
       <c r="C8">
         <v>1432410</v>
       </c>
@@ -3402,10 +3429,13 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>265</v>
       </c>
+      <c r="B9" t="s">
+        <v>269</v>
+      </c>
       <c r="C9">
         <v>1595390</v>
       </c>
@@ -3416,9 +3446,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>269</v>
       </c>
       <c r="C10">
         <v>1592240</v>
